--- a/LOGIC PHẦN MỀM.xlsx
+++ b/LOGIC PHẦN MỀM.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20410"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DPROS-12-08-2024\DPROS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DPROS 21-08\DPROS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D113D3-D763-4775-B699-482B16AB6AF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="QLY KHUÔN" sheetId="1" r:id="rId1"/>
-    <sheet name="Bảo dưỡng Khuôn" sheetId="2" r:id="rId2"/>
-    <sheet name="Quy trình thêm lý lịch BD" sheetId="3" r:id="rId3"/>
+    <sheet name="DataBase Qly Khuôn" sheetId="6" r:id="rId2"/>
+    <sheet name="DataBase Khuôn 2" sheetId="10" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId4"/>
+    <sheet name="Bảo dưỡng Khuôn" sheetId="2" r:id="rId5"/>
+    <sheet name="Quy trình thêm lý lịch BD" sheetId="3" r:id="rId6"/>
+    <sheet name="Try Catch khóa phụ " sheetId="4" r:id="rId7"/>
+    <sheet name="Chỉ Thị Sản Xuất." sheetId="5" r:id="rId8"/>
+    <sheet name="DataBase CTSX" sheetId="7" r:id="rId9"/>
+    <sheet name="Quản lý Hộp." sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="79">
   <si>
     <t>MoldUsing</t>
   </si>
@@ -204,13 +210,73 @@
   </si>
   <si>
     <t>Tổng Shot bằng cộng dồn lại Số Shot thực tế sau mỗi lần bảo dưỡng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bảng lý lịch phải Tham </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chiếu đến bảng Khuôn </t>
+  </si>
+  <si>
+    <t>đang sử dụng</t>
+  </si>
+  <si>
+    <t>Xóa lịch sử đi thì nó phải về trạng thái trước đó.</t>
+  </si>
+  <si>
+    <t>Số Shot thực tế tại những lần bảo dưỡng.</t>
+  </si>
+  <si>
+    <t>Try catch để xem dữ liệu đang tồn tại ở bảng nào</t>
+  </si>
+  <si>
+    <t>Khóa phụ tham chiếu đến đang không cùng kiểu dữ liệu</t>
+  </si>
+  <si>
+    <t>BẢNG linh kiện</t>
+  </si>
+  <si>
+    <t>Bảng Mác cài sản phẩm.</t>
+  </si>
+  <si>
+    <t>Thiết lập dữ liệu nguồn về linh kiện</t>
+  </si>
+  <si>
+    <t>Định nghĩa ra là linh kiện này, sản xuất trên máy nào, khuôn gì, tại nhà máy ở đâu</t>
+  </si>
+  <si>
+    <t>Bảng Chỉ Thị Sản Xuất.</t>
+  </si>
+  <si>
+    <t>Chỉ định ra số lượng sản phẩm cần sản xuất</t>
+  </si>
+  <si>
+    <t>Chỉ định ra khối lượng nguyên liệu sử dụng.</t>
+  </si>
+  <si>
+    <t>Tính ra khối lượng từ bảng linh kiện.</t>
+  </si>
+  <si>
+    <t>Cột nhà máy trống là khả năng lúc ý còn có một nhà máy</t>
+  </si>
+  <si>
+    <t>tính Khối lượng dựa trên tỷ lệ hao hụt</t>
+  </si>
+  <si>
+    <t>Hộp trống</t>
+  </si>
+  <si>
+    <t>Setup hộp</t>
+  </si>
+  <si>
+    <t>QL hộp dư</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,8 +297,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +315,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -269,11 +347,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -291,9 +370,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -313,59 +399,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC2284BF-D6B9-41C2-B6AD-282BD8AAEBCD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1238250" y="1019175"/>
-          <a:ext cx="4762500" cy="1171575"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -382,7 +415,7 @@
         <xdr:cNvPr id="6" name="Arrow: Right 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{152F824A-F296-4E7F-AFD0-4DDBE471993E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -442,7 +475,7 @@
         <xdr:cNvPr id="8" name="Arrow: Up 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E31B6509-36B3-446D-8F31-204874EDDAC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -502,7 +535,7 @@
         <xdr:cNvPr id="9" name="Circle: Hollow 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D87165F-2798-4CE1-A752-B5BAA04FC011}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -566,7 +599,7 @@
         <xdr:cNvPr id="10" name="Arrow: Right 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7C4CF38-66E5-4532-B90D-C321EDFC52D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -608,6 +641,66 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Right Arrow 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3009900" y="2266950"/>
+          <a:ext cx="2247900" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -615,23 +708,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>180976</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>67006</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>706331</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1010</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93D0EF49-41A8-429D-B049-A6B4BA2CF499}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -647,6 +740,173 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="4857750" y="0"/>
+          <a:ext cx="10612331" cy="7240010"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="3371850"/>
+          <a:ext cx="1514476" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Khóa</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> tham chiếu trùng với khóa chính</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>20462</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>77113</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3314700" y="200025"/>
+          <a:ext cx="10116962" cy="6544588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>67006</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="142876" y="171450"/>
           <a:ext cx="17106900" cy="2372056"/>
         </a:xfrm>
@@ -675,7 +935,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{964D7C3F-30D6-4906-825C-48610E6751DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -719,7 +979,7 @@
         <xdr:cNvPr id="4" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE807BD8-ABC3-4CD9-B8E1-90F22D4413F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -780,7 +1040,7 @@
         <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16397252-8411-4A24-840C-56A2FFC9B287}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -841,7 +1101,7 @@
         <xdr:cNvPr id="6" name="Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9CF028E-DB4F-408F-92B4-D4F22904A73C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -902,7 +1162,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C84EAEA6-AC70-468A-8535-5642AD28F43D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -940,27 +1200,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
+      <xdr:colOff>285751</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F3AA27A-95B1-4A84-BD3A-23FE77D55971}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -976,8 +1236,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="114301" y="647700"/>
-          <a:ext cx="9639299" cy="4124325"/>
+          <a:off x="285751" y="657226"/>
+          <a:ext cx="8782050" cy="3657600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1004,7 +1264,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B450D0A-F580-4CD2-AA51-E796B63215AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1065,7 +1325,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{253BAAA6-5188-429B-8F99-27E8C50F36AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1102,23 +1362,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03E92F00-47FC-4052-AC01-FC9CFB8616A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1134,7 +1394,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10153649" y="695325"/>
+          <a:off x="11134724" y="571500"/>
           <a:ext cx="7620001" cy="4038600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1162,7 +1422,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67650C3C-B720-4CE0-926E-38CB46C07701}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1206,7 +1466,7 @@
         <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E409BD6-66FF-4822-9A83-BA4B83D88A7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1259,7 +1519,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD2F33B7-6C1E-477B-9E34-9B0DE18D0DAC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1292,6 +1552,871 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9286876" y="2590800"/>
+          <a:ext cx="1847848" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3486151" y="4143375"/>
+          <a:ext cx="7658099" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13125450" y="3333750"/>
+          <a:ext cx="609600" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13535025" y="3533775"/>
+          <a:ext cx="1057275" cy="2914650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>49059</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="714375"/>
+          <a:ext cx="10278909" cy="1438476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3190876" y="2124075"/>
+          <a:ext cx="9524" cy="2238375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>429461</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="4752975"/>
+          <a:ext cx="5992061" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5934075" y="5038725"/>
+          <a:ext cx="466725" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>cũ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>229383</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="6172200"/>
+          <a:ext cx="5611008" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4505325" y="6610350"/>
+          <a:ext cx="1628775" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Mới</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6600825" y="3771900"/>
+          <a:ext cx="3733800" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>77254</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10201275" y="5286375"/>
+          <a:ext cx="7554379" cy="1076475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10391775" y="5772150"/>
+          <a:ext cx="1228725" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Mới.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>124896</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10182225" y="3838575"/>
+          <a:ext cx="7621071" cy="1324160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8848725" y="2266950"/>
+          <a:ext cx="7648575" cy="1495425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>230982</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2052638" y="80963"/>
+          <a:ext cx="13389768" cy="9063038"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1559,11 +2684,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:V34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2104,8 +3229,93 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C16:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4705D6-EA2A-4635-9359-1E4AE9624D0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="19" max="19" width="7.5703125" customWidth="1"/>
+    <col min="20" max="20" width="8.140625" customWidth="1"/>
+    <col min="21" max="21" width="9.42578125" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" customWidth="1"/>
+    <col min="24" max="24" width="10.85546875" customWidth="1"/>
+    <col min="25" max="25" width="13.28515625" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" customWidth="1"/>
+    <col min="28" max="28" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2125,17 +3335,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC3D414-5FC7-41B2-B6CC-BEA05311B501}">
-  <dimension ref="B3:U32"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>55</v>
       </c>
@@ -2143,18 +3353,169 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="20:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="20:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U32" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="X35" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:U32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="F3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="R20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="E24:L24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AD13" sqref="AD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>